--- a/Amazon server cost.xlsx
+++ b/Amazon server cost.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fergalaz/work/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -119,12 +119,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,18 +143,23 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,24 +181,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -201,7 +217,18 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -213,7 +240,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -230,7 +257,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -247,12 +274,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -265,12 +292,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -283,10 +310,33 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
       </font>
     </dxf>
     <dxf>
@@ -300,7 +350,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -317,7 +367,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -334,12 +384,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -352,12 +402,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <font>
@@ -370,10 +420,99 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
       </font>
     </dxf>
   </dxfs>
@@ -382,12 +521,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A11:E13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A11:E13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A11:E13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -396,18 +538,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Instance"/>
-    <tableColumn id="2" name="Qty"/>
-    <tableColumn id="3" name="Unit cost"/>
-    <tableColumn id="4" name="Total cost"/>
-    <tableColumn id="5" name="Remarks"/>
+    <tableColumn id="1" name="Instance" dataDxfId="20"/>
+    <tableColumn id="2" name="Qty" dataDxfId="19"/>
+    <tableColumn id="3" name="Unit cost" dataDxfId="18"/>
+    <tableColumn id="4" name="Total cost" dataDxfId="17"/>
+    <tableColumn id="5" name="Remarks" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A16:E18" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A16:E18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A16:E18">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -416,18 +558,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Instance"/>
-    <tableColumn id="2" name="Qty" dataDxfId="9"/>
-    <tableColumn id="3" name="Unit cost" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="Total cost" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="Remarks" dataDxfId="6"/>
+    <tableColumn id="1" name="Instance" dataDxfId="13"/>
+    <tableColumn id="2" name="Qty" dataDxfId="12"/>
+    <tableColumn id="3" name="Unit cost" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="4" name="Total cost" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Remarks" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A22:E24" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A22:E24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A22:E24">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -436,11 +578,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Instance"/>
-    <tableColumn id="2" name="Qty" dataDxfId="4"/>
-    <tableColumn id="3" name="Cost" dataDxfId="3"/>
-    <tableColumn id="4" name="Total cost" dataDxfId="2"/>
-    <tableColumn id="5" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" name="Instance" dataDxfId="6"/>
+    <tableColumn id="2" name="Qty" dataDxfId="5"/>
+    <tableColumn id="3" name="Cost" dataDxfId="4"/>
+    <tableColumn id="4" name="Total cost" dataDxfId="3"/>
+    <tableColumn id="5" name="Remarks" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -711,380 +853,402 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>F3*24*365</f>
         <v>490.56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>6.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>F5*24*365</f>
         <v>1156.3200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>6.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>6.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>F7*24*365</f>
         <v>182.208</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>734</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>5138</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="10" t="s">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>5138</v>
       </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="11">
         <v>734</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="11">
         <v>734</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="10">
         <v>6</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="11">
         <v>326</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="11">
         <v>1956</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="11">
         <v>2690</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="14">
         <v>734</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="14">
         <v>734</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="10">
         <v>6</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="14">
         <v>182.208</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="14">
         <v>1093.248</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="14">
         <v>1827.248</v>
       </c>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>